--- a/Excel/Excel Final project data.xlsx
+++ b/Excel/Excel Final project data.xlsx
@@ -5,26 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan\Desktop\Bootcamp.Info\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826EC8C-43DC-4F7B-A7A5-153958507E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E83009-A785-475A-B0B0-A7FEA154F1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="heart_failure_clinical_records_" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId5"/>
+    <sheet name="heart_failure_clinical_records_" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="59" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="36">
   <si>
     <t>age</t>
   </si>
@@ -105,6 +109,33 @@
   </si>
   <si>
     <t>Count of age</t>
+  </si>
+  <si>
+    <t>Average of high_blood_pressure</t>
+  </si>
+  <si>
+    <t>Average of serum_sodium</t>
+  </si>
+  <si>
+    <t>Sum of creatinine_phosphokinase</t>
+  </si>
+  <si>
+    <t>Average of creatinine_phosphokinase</t>
+  </si>
+  <si>
+    <t>Average of serum_creatinine</t>
+  </si>
+  <si>
+    <t>Average of anaemia</t>
+  </si>
+  <si>
+    <t>Count of DEATH_EVENT</t>
+  </si>
+  <si>
+    <t>Average of diabetes</t>
+  </si>
+  <si>
+    <t>Average of smoking</t>
   </si>
 </sst>
 </file>
@@ -656,6 +687,1191 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel Final project data.xlsx]Sheet5!PivotTable44</c:name>
+    <c:fmtId val="61"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of serum_sodium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Died</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survived</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>135.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.21674876847291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D18D-4FF0-B49B-98E031B447EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count of DEATH_EVENT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Died</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survived</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D18D-4FF0-B49B-98E031B447EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539235704"/>
+        <c:axId val="539231768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539235704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539231768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539231768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539235704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB4FA65-3EA0-44EB-9564-3DA622C92B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kishan" refreshedDate="44512.401504398149" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="300" xr:uid="{79E2C1FE-9D58-45A2-8029-D738724A7FFC}">
   <cacheSource type="worksheet">
@@ -715,7 +1931,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="anaemia" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
+        <n v="0"/>
+        <n v="1"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="creatinine_phosphokinase" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="23" maxValue="7861"/>
@@ -771,7 +1991,7 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="300">
   <r>
     <x v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="20"/>
@@ -786,7 +2006,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="7861"/>
     <n v="0"/>
     <n v="38"/>
@@ -801,7 +2021,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="146"/>
     <n v="0"/>
     <n v="20"/>
@@ -816,7 +2036,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="111"/>
     <n v="0"/>
     <n v="20"/>
@@ -831,7 +2051,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="160"/>
     <n v="1"/>
     <n v="20"/>
@@ -846,7 +2066,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="47"/>
     <n v="0"/>
     <n v="40"/>
@@ -861,7 +2081,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="246"/>
     <n v="0"/>
     <n v="15"/>
@@ -876,7 +2096,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="315"/>
     <n v="1"/>
     <n v="60"/>
@@ -891,7 +2111,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="157"/>
     <n v="0"/>
     <n v="65"/>
@@ -906,7 +2126,7 @@
   </r>
   <r>
     <x v="6"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="123"/>
     <n v="0"/>
     <n v="35"/>
@@ -921,7 +2141,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="81"/>
     <n v="0"/>
     <n v="38"/>
@@ -936,7 +2156,7 @@
   </r>
   <r>
     <x v="7"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="231"/>
     <n v="0"/>
     <n v="25"/>
@@ -951,7 +2171,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="981"/>
     <n v="0"/>
     <n v="30"/>
@@ -966,7 +2186,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="168"/>
     <n v="0"/>
     <n v="38"/>
@@ -981,7 +2201,7 @@
   </r>
   <r>
     <x v="9"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="80"/>
     <n v="0"/>
     <n v="30"/>
@@ -996,7 +2216,7 @@
   </r>
   <r>
     <x v="10"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="379"/>
     <n v="0"/>
     <n v="50"/>
@@ -1011,7 +2231,7 @@
   </r>
   <r>
     <x v="11"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="149"/>
     <n v="0"/>
     <n v="38"/>
@@ -1026,7 +2246,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="14"/>
@@ -1041,7 +2261,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="125"/>
     <n v="0"/>
     <n v="25"/>
@@ -1056,7 +2276,7 @@
   </r>
   <r>
     <x v="13"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="582"/>
     <n v="1"/>
     <n v="55"/>
@@ -1071,7 +2291,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="52"/>
     <n v="0"/>
     <n v="25"/>
@@ -1086,7 +2306,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="128"/>
     <n v="1"/>
     <n v="30"/>
@@ -1101,7 +2321,7 @@
   </r>
   <r>
     <x v="14"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="220"/>
     <n v="0"/>
     <n v="35"/>
@@ -1116,7 +2336,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="63"/>
     <n v="1"/>
     <n v="60"/>
@@ -1131,7 +2351,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="30"/>
@@ -1146,7 +2366,7 @@
   </r>
   <r>
     <x v="6"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="148"/>
     <n v="1"/>
     <n v="38"/>
@@ -1161,7 +2381,7 @@
   </r>
   <r>
     <x v="16"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="112"/>
     <n v="0"/>
     <n v="40"/>
@@ -1176,7 +2396,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="122"/>
     <n v="1"/>
     <n v="45"/>
@@ -1191,7 +2411,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="60"/>
     <n v="0"/>
     <n v="38"/>
@@ -1206,7 +2426,7 @@
   </r>
   <r>
     <x v="10"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="70"/>
     <n v="1"/>
     <n v="30"/>
@@ -1221,7 +2441,7 @@
   </r>
   <r>
     <x v="18"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="38"/>
@@ -1236,7 +2456,7 @@
   </r>
   <r>
     <x v="19"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="23"/>
     <n v="0"/>
     <n v="45"/>
@@ -1251,7 +2471,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="249"/>
     <n v="1"/>
     <n v="35"/>
@@ -1266,7 +2486,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="159"/>
     <n v="1"/>
     <n v="30"/>
@@ -1281,7 +2501,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="94"/>
     <n v="1"/>
     <n v="50"/>
@@ -1296,7 +2516,7 @@
   </r>
   <r>
     <x v="20"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="35"/>
@@ -1311,7 +2531,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="60"/>
     <n v="1"/>
     <n v="50"/>
@@ -1326,7 +2546,7 @@
   </r>
   <r>
     <x v="10"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="855"/>
     <n v="1"/>
     <n v="50"/>
@@ -1341,7 +2561,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="2656"/>
     <n v="1"/>
     <n v="30"/>
@@ -1356,7 +2576,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="235"/>
     <n v="1"/>
     <n v="38"/>
@@ -1371,7 +2591,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="20"/>
@@ -1386,7 +2606,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="124"/>
     <n v="1"/>
     <n v="30"/>
@@ -1401,7 +2621,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="571"/>
     <n v="1"/>
     <n v="45"/>
@@ -1416,7 +2636,7 @@
   </r>
   <r>
     <x v="21"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="127"/>
     <n v="1"/>
     <n v="50"/>
@@ -1431,7 +2651,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="588"/>
     <n v="1"/>
     <n v="60"/>
@@ -1446,7 +2666,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="38"/>
@@ -1461,7 +2681,7 @@
   </r>
   <r>
     <x v="22"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1380"/>
     <n v="0"/>
     <n v="25"/>
@@ -1476,7 +2696,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="38"/>
@@ -1491,7 +2711,7 @@
   </r>
   <r>
     <x v="6"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="553"/>
     <n v="0"/>
     <n v="20"/>
@@ -1506,7 +2726,7 @@
   </r>
   <r>
     <x v="23"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="129"/>
     <n v="0"/>
     <n v="30"/>
@@ -1521,7 +2741,7 @@
   </r>
   <r>
     <x v="14"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="577"/>
     <n v="0"/>
     <n v="25"/>
@@ -1536,7 +2756,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="91"/>
     <n v="0"/>
     <n v="20"/>
@@ -1551,7 +2771,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="3964"/>
     <n v="1"/>
     <n v="62"/>
@@ -1566,7 +2786,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="69"/>
     <n v="1"/>
     <n v="50"/>
@@ -1581,7 +2801,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="260"/>
     <n v="1"/>
     <n v="38"/>
@@ -1596,7 +2816,7 @@
   </r>
   <r>
     <x v="16"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="371"/>
     <n v="0"/>
     <n v="30"/>
@@ -1611,7 +2831,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="75"/>
     <n v="0"/>
     <n v="35"/>
@@ -1626,7 +2846,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="607"/>
     <n v="0"/>
     <n v="40"/>
@@ -1641,7 +2861,7 @@
   </r>
   <r>
     <x v="9"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="789"/>
     <n v="0"/>
     <n v="20"/>
@@ -1656,7 +2876,7 @@
   </r>
   <r>
     <x v="21"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="364"/>
     <n v="1"/>
     <n v="20"/>
@@ -1671,7 +2891,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="7702"/>
     <n v="1"/>
     <n v="25"/>
@@ -1686,7 +2906,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="318"/>
     <n v="0"/>
     <n v="40"/>
@@ -1701,7 +2921,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="109"/>
     <n v="0"/>
     <n v="35"/>
@@ -1716,7 +2936,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="35"/>
@@ -1731,7 +2951,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="80"/>
@@ -1746,7 +2966,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="68"/>
     <n v="0"/>
     <n v="20"/>
@@ -1761,7 +2981,7 @@
   </r>
   <r>
     <x v="24"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="250"/>
     <n v="1"/>
     <n v="15"/>
@@ -1776,7 +2996,7 @@
   </r>
   <r>
     <x v="21"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="110"/>
     <n v="0"/>
     <n v="25"/>
@@ -1791,7 +3011,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="161"/>
     <n v="0"/>
     <n v="25"/>
@@ -1806,7 +3026,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="113"/>
     <n v="1"/>
     <n v="25"/>
@@ -1821,7 +3041,7 @@
   </r>
   <r>
     <x v="25"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="148"/>
     <n v="0"/>
     <n v="40"/>
@@ -1836,7 +3056,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="35"/>
@@ -1851,7 +3071,7 @@
   </r>
   <r>
     <x v="19"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="5882"/>
     <n v="0"/>
     <n v="35"/>
@@ -1866,7 +3086,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="224"/>
     <n v="1"/>
     <n v="50"/>
@@ -1881,7 +3101,7 @@
   </r>
   <r>
     <x v="20"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="20"/>
@@ -1896,7 +3116,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="47"/>
     <n v="0"/>
     <n v="20"/>
@@ -1911,7 +3131,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="92"/>
     <n v="0"/>
     <n v="60"/>
@@ -1926,7 +3146,7 @@
   </r>
   <r>
     <x v="24"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="102"/>
     <n v="1"/>
     <n v="40"/>
@@ -1941,7 +3161,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="203"/>
     <n v="1"/>
     <n v="38"/>
@@ -1956,7 +3176,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="336"/>
     <n v="0"/>
     <n v="45"/>
@@ -1971,7 +3191,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="69"/>
     <n v="0"/>
     <n v="40"/>
@@ -1986,7 +3206,7 @@
   </r>
   <r>
     <x v="26"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="50"/>
@@ -2001,7 +3221,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="76"/>
     <n v="1"/>
     <n v="25"/>
@@ -2016,7 +3236,7 @@
   </r>
   <r>
     <x v="27"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="55"/>
     <n v="0"/>
     <n v="50"/>
@@ -2031,7 +3251,7 @@
   </r>
   <r>
     <x v="28"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="280"/>
     <n v="1"/>
     <n v="25"/>
@@ -2046,7 +3266,7 @@
   </r>
   <r>
     <x v="22"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="78"/>
     <n v="0"/>
     <n v="50"/>
@@ -2061,7 +3281,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="47"/>
     <n v="0"/>
     <n v="35"/>
@@ -2076,7 +3296,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="68"/>
     <n v="1"/>
     <n v="60"/>
@@ -2091,7 +3311,7 @@
   </r>
   <r>
     <x v="29"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="84"/>
     <n v="1"/>
     <n v="40"/>
@@ -2106,7 +3326,7 @@
   </r>
   <r>
     <x v="23"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="115"/>
     <n v="0"/>
     <n v="25"/>
@@ -2121,7 +3341,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="66"/>
     <n v="1"/>
     <n v="45"/>
@@ -2136,7 +3356,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="897"/>
     <n v="1"/>
     <n v="45"/>
@@ -2151,7 +3371,7 @@
   </r>
   <r>
     <x v="24"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="60"/>
@@ -2166,7 +3386,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="154"/>
     <n v="0"/>
     <n v="25"/>
@@ -2181,7 +3401,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="144"/>
     <n v="1"/>
     <n v="38"/>
@@ -2196,7 +3416,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="133"/>
     <n v="0"/>
     <n v="60"/>
@@ -2211,7 +3431,7 @@
   </r>
   <r>
     <x v="30"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="514"/>
     <n v="1"/>
     <n v="25"/>
@@ -2226,7 +3446,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="59"/>
     <n v="0"/>
     <n v="60"/>
@@ -2241,7 +3461,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="156"/>
     <n v="1"/>
     <n v="25"/>
@@ -2256,7 +3476,7 @@
   </r>
   <r>
     <x v="30"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="61"/>
     <n v="1"/>
     <n v="40"/>
@@ -2271,7 +3491,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="305"/>
     <n v="0"/>
     <n v="25"/>
@@ -2286,7 +3506,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="45"/>
@@ -2301,7 +3521,7 @@
   </r>
   <r>
     <x v="6"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="898"/>
     <n v="0"/>
     <n v="25"/>
@@ -2316,7 +3536,7 @@
   </r>
   <r>
     <x v="24"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="5209"/>
     <n v="0"/>
     <n v="30"/>
@@ -2331,7 +3551,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="53"/>
     <n v="0"/>
     <n v="50"/>
@@ -2346,7 +3566,7 @@
   </r>
   <r>
     <x v="21"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="328"/>
     <n v="0"/>
     <n v="30"/>
@@ -2361,7 +3581,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="748"/>
     <n v="0"/>
     <n v="45"/>
@@ -2376,7 +3596,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="1876"/>
     <n v="1"/>
     <n v="35"/>
@@ -2391,7 +3611,7 @@
   </r>
   <r>
     <x v="30"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="936"/>
     <n v="0"/>
     <n v="38"/>
@@ -2406,7 +3626,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="292"/>
     <n v="1"/>
     <n v="35"/>
@@ -2421,7 +3641,7 @@
   </r>
   <r>
     <x v="19"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="129"/>
     <n v="0"/>
     <n v="60"/>
@@ -2436,7 +3656,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="60"/>
     <n v="0"/>
     <n v="35"/>
@@ -2451,7 +3671,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="369"/>
     <n v="1"/>
     <n v="25"/>
@@ -2466,7 +3686,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="143"/>
     <n v="0"/>
     <n v="60"/>
@@ -2481,7 +3701,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="754"/>
     <n v="1"/>
     <n v="40"/>
@@ -2496,7 +3716,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="400"/>
     <n v="0"/>
     <n v="40"/>
@@ -2511,7 +3731,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="96"/>
     <n v="1"/>
     <n v="60"/>
@@ -2526,7 +3746,7 @@
   </r>
   <r>
     <x v="19"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="102"/>
     <n v="0"/>
     <n v="60"/>
@@ -2541,7 +3761,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="113"/>
     <n v="1"/>
     <n v="60"/>
@@ -2556,7 +3776,7 @@
   </r>
   <r>
     <x v="31"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="38"/>
@@ -2571,7 +3791,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="737"/>
     <n v="0"/>
     <n v="60"/>
@@ -2586,7 +3806,7 @@
   </r>
   <r>
     <x v="32"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="68"/>
     <n v="1"/>
     <n v="38"/>
@@ -2601,7 +3821,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="96"/>
     <n v="1"/>
     <n v="38"/>
@@ -2616,7 +3836,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="582"/>
     <n v="0"/>
     <n v="30"/>
@@ -2631,7 +3851,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="40"/>
@@ -2646,7 +3866,7 @@
   </r>
   <r>
     <x v="33"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="358"/>
     <n v="0"/>
     <n v="50"/>
@@ -2661,7 +3881,7 @@
   </r>
   <r>
     <x v="34"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="168"/>
     <n v="1"/>
     <n v="17"/>
@@ -2676,7 +3896,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="200"/>
     <n v="1"/>
     <n v="60"/>
@@ -2691,7 +3911,7 @@
   </r>
   <r>
     <x v="35"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="248"/>
     <n v="0"/>
     <n v="30"/>
@@ -2706,7 +3926,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="270"/>
     <n v="1"/>
     <n v="35"/>
@@ -2721,7 +3941,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="1808"/>
     <n v="0"/>
     <n v="60"/>
@@ -2736,7 +3956,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="1082"/>
     <n v="1"/>
     <n v="45"/>
@@ -2751,7 +3971,7 @@
   </r>
   <r>
     <x v="34"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="719"/>
     <n v="0"/>
     <n v="40"/>
@@ -2766,7 +3986,7 @@
   </r>
   <r>
     <x v="30"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="193"/>
     <n v="0"/>
     <n v="60"/>
@@ -2781,7 +4001,7 @@
   </r>
   <r>
     <x v="36"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="4540"/>
     <n v="0"/>
     <n v="35"/>
@@ -2796,7 +4016,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="40"/>
@@ -2811,7 +4031,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="59"/>
     <n v="1"/>
     <n v="60"/>
@@ -2826,7 +4046,7 @@
   </r>
   <r>
     <x v="14"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="646"/>
     <n v="0"/>
     <n v="25"/>
@@ -2841,7 +4061,7 @@
   </r>
   <r>
     <x v="7"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="281"/>
     <n v="1"/>
     <n v="35"/>
@@ -2856,7 +4076,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1548"/>
     <n v="0"/>
     <n v="30"/>
@@ -2871,7 +4091,7 @@
   </r>
   <r>
     <x v="6"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="805"/>
     <n v="0"/>
     <n v="38"/>
@@ -2886,7 +4106,7 @@
   </r>
   <r>
     <x v="34"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="291"/>
     <n v="0"/>
     <n v="35"/>
@@ -2901,7 +4121,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="482"/>
     <n v="1"/>
     <n v="30"/>
@@ -2916,7 +4136,7 @@
   </r>
   <r>
     <x v="35"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="84"/>
     <n v="0"/>
     <n v="40"/>
@@ -2931,7 +4151,7 @@
   </r>
   <r>
     <x v="21"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="943"/>
     <n v="0"/>
     <n v="25"/>
@@ -2946,7 +4166,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="185"/>
     <n v="0"/>
     <n v="30"/>
@@ -2961,7 +4181,7 @@
   </r>
   <r>
     <x v="37"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="132"/>
     <n v="0"/>
     <n v="30"/>
@@ -2976,7 +4196,7 @@
   </r>
   <r>
     <x v="38"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1610"/>
     <n v="0"/>
     <n v="60"/>
@@ -2991,7 +4211,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="582"/>
     <n v="0"/>
     <n v="30"/>
@@ -3006,7 +4226,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="2261"/>
     <n v="0"/>
     <n v="35"/>
@@ -3021,7 +4241,7 @@
   </r>
   <r>
     <x v="21"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="233"/>
     <n v="0"/>
     <n v="45"/>
@@ -3036,7 +4256,7 @@
   </r>
   <r>
     <x v="7"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="30"/>
     <n v="1"/>
     <n v="60"/>
@@ -3051,7 +4271,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="115"/>
     <n v="0"/>
     <n v="45"/>
@@ -3066,7 +4286,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1846"/>
     <n v="1"/>
     <n v="35"/>
@@ -3081,7 +4301,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="335"/>
     <n v="0"/>
     <n v="35"/>
@@ -3096,7 +4316,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="231"/>
     <n v="1"/>
     <n v="25"/>
@@ -3111,7 +4331,7 @@
   </r>
   <r>
     <x v="37"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="58"/>
     <n v="0"/>
     <n v="35"/>
@@ -3126,7 +4346,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="250"/>
     <n v="0"/>
     <n v="25"/>
@@ -3141,7 +4361,7 @@
   </r>
   <r>
     <x v="19"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="910"/>
     <n v="0"/>
     <n v="50"/>
@@ -3156,7 +4376,7 @@
   </r>
   <r>
     <x v="28"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="129"/>
     <n v="0"/>
     <n v="45"/>
@@ -3171,7 +4391,7 @@
   </r>
   <r>
     <x v="32"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="72"/>
     <n v="0"/>
     <n v="40"/>
@@ -3186,7 +4406,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="130"/>
     <n v="0"/>
     <n v="35"/>
@@ -3201,7 +4421,7 @@
   </r>
   <r>
     <x v="30"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="582"/>
     <n v="0"/>
     <n v="40"/>
@@ -3216,7 +4436,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="2334"/>
     <n v="1"/>
     <n v="35"/>
@@ -3231,7 +4451,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="2442"/>
     <n v="1"/>
     <n v="30"/>
@@ -3246,7 +4466,7 @@
   </r>
   <r>
     <x v="6"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="776"/>
     <n v="1"/>
     <n v="38"/>
@@ -3261,7 +4481,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="196"/>
     <n v="0"/>
     <n v="60"/>
@@ -3276,7 +4496,7 @@
   </r>
   <r>
     <x v="28"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="66"/>
     <n v="1"/>
     <n v="20"/>
@@ -3291,7 +4511,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="40"/>
@@ -3306,7 +4526,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="835"/>
     <n v="0"/>
     <n v="35"/>
@@ -3321,7 +4541,7 @@
   </r>
   <r>
     <x v="22"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="582"/>
     <n v="1"/>
     <n v="35"/>
@@ -3336,7 +4556,7 @@
   </r>
   <r>
     <x v="37"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="3966"/>
     <n v="0"/>
     <n v="40"/>
@@ -3351,7 +4571,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="171"/>
     <n v="0"/>
     <n v="60"/>
@@ -3366,7 +4586,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="115"/>
     <n v="0"/>
     <n v="20"/>
@@ -3381,7 +4601,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="198"/>
     <n v="1"/>
     <n v="35"/>
@@ -3396,7 +4616,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="95"/>
     <n v="0"/>
     <n v="60"/>
@@ -3411,7 +4631,7 @@
   </r>
   <r>
     <x v="20"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1419"/>
     <n v="0"/>
     <n v="40"/>
@@ -3426,7 +4646,7 @@
   </r>
   <r>
     <x v="9"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="69"/>
     <n v="0"/>
     <n v="50"/>
@@ -3441,7 +4661,7 @@
   </r>
   <r>
     <x v="30"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="122"/>
     <n v="1"/>
     <n v="60"/>
@@ -3456,7 +4676,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="835"/>
     <n v="0"/>
     <n v="40"/>
@@ -3471,7 +4691,7 @@
   </r>
   <r>
     <x v="39"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="478"/>
     <n v="1"/>
     <n v="30"/>
@@ -3486,7 +4706,7 @@
   </r>
   <r>
     <x v="28"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="176"/>
     <n v="1"/>
     <n v="25"/>
@@ -3501,7 +4721,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="395"/>
     <n v="1"/>
     <n v="25"/>
@@ -3516,7 +4736,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="99"/>
     <n v="0"/>
     <n v="38"/>
@@ -3531,7 +4751,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="145"/>
     <n v="0"/>
     <n v="25"/>
@@ -3546,7 +4766,7 @@
   </r>
   <r>
     <x v="40"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="104"/>
     <n v="1"/>
     <n v="30"/>
@@ -3561,7 +4781,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="50"/>
@@ -3576,7 +4796,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1896"/>
     <n v="1"/>
     <n v="25"/>
@@ -3591,7 +4811,7 @@
   </r>
   <r>
     <x v="40"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="151"/>
     <n v="1"/>
     <n v="40"/>
@@ -3606,7 +4826,7 @@
   </r>
   <r>
     <x v="39"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="244"/>
     <n v="0"/>
     <n v="45"/>
@@ -3621,7 +4841,7 @@
   </r>
   <r>
     <x v="6"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="35"/>
@@ -3636,7 +4856,7 @@
   </r>
   <r>
     <x v="38"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="62"/>
     <n v="0"/>
     <n v="60"/>
@@ -3651,7 +4871,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="121"/>
     <n v="1"/>
     <n v="40"/>
@@ -3666,7 +4886,7 @@
   </r>
   <r>
     <x v="41"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="231"/>
     <n v="1"/>
     <n v="30"/>
@@ -3681,7 +4901,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="20"/>
@@ -3696,7 +4916,7 @@
   </r>
   <r>
     <x v="42"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="418"/>
     <n v="0"/>
     <n v="45"/>
@@ -3711,7 +4931,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="38"/>
@@ -3726,7 +4946,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="167"/>
     <n v="0"/>
     <n v="30"/>
@@ -3741,7 +4961,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="582"/>
     <n v="1"/>
     <n v="20"/>
@@ -3756,7 +4976,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1211"/>
     <n v="1"/>
     <n v="35"/>
@@ -3771,7 +4991,7 @@
   </r>
   <r>
     <x v="30"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="1767"/>
     <n v="0"/>
     <n v="45"/>
@@ -3786,7 +5006,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="308"/>
     <n v="1"/>
     <n v="60"/>
@@ -3801,7 +5021,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="97"/>
     <n v="0"/>
     <n v="60"/>
@@ -3816,7 +5036,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="59"/>
     <n v="0"/>
     <n v="25"/>
@@ -3831,7 +5051,7 @@
   </r>
   <r>
     <x v="43"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="64"/>
     <n v="0"/>
     <n v="40"/>
@@ -3846,7 +5066,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="167"/>
     <n v="1"/>
     <n v="45"/>
@@ -3861,7 +5081,7 @@
   </r>
   <r>
     <x v="39"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="101"/>
     <n v="0"/>
     <n v="40"/>
@@ -3876,7 +5096,7 @@
   </r>
   <r>
     <x v="19"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="212"/>
     <n v="0"/>
     <n v="38"/>
@@ -3891,7 +5111,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="2281"/>
     <n v="1"/>
     <n v="40"/>
@@ -3906,7 +5126,7 @@
   </r>
   <r>
     <x v="9"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="972"/>
     <n v="1"/>
     <n v="35"/>
@@ -3921,7 +5141,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="212"/>
     <n v="1"/>
     <n v="17"/>
@@ -3936,7 +5156,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="62"/>
@@ -3951,7 +5171,7 @@
   </r>
   <r>
     <x v="43"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="224"/>
     <n v="0"/>
     <n v="50"/>
@@ -3966,7 +5186,7 @@
   </r>
   <r>
     <x v="13"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="131"/>
     <n v="1"/>
     <n v="30"/>
@@ -3981,7 +5201,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="135"/>
     <n v="0"/>
     <n v="35"/>
@@ -3996,7 +5216,7 @@
   </r>
   <r>
     <x v="41"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="35"/>
@@ -4011,7 +5231,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1202"/>
     <n v="0"/>
     <n v="50"/>
@@ -4026,7 +5246,7 @@
   </r>
   <r>
     <x v="44"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="427"/>
     <n v="0"/>
     <n v="70"/>
@@ -4041,7 +5261,7 @@
   </r>
   <r>
     <x v="14"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="1021"/>
     <n v="1"/>
     <n v="35"/>
@@ -4056,7 +5276,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="35"/>
@@ -4071,7 +5291,7 @@
   </r>
   <r>
     <x v="41"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="20"/>
@@ -4086,7 +5306,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="118"/>
     <n v="0"/>
     <n v="50"/>
@@ -4101,7 +5321,7 @@
   </r>
   <r>
     <x v="24"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="86"/>
     <n v="0"/>
     <n v="35"/>
@@ -4116,7 +5336,7 @@
   </r>
   <r>
     <x v="45"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="25"/>
@@ -4131,7 +5351,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="25"/>
@@ -4146,7 +5366,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="675"/>
     <n v="1"/>
     <n v="60"/>
@@ -4161,7 +5381,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="57"/>
     <n v="0"/>
     <n v="25"/>
@@ -4176,7 +5396,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="2794"/>
     <n v="0"/>
     <n v="35"/>
@@ -4191,7 +5411,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="56"/>
     <n v="0"/>
     <n v="25"/>
@@ -4206,7 +5426,7 @@
   </r>
   <r>
     <x v="21"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="211"/>
     <n v="0"/>
     <n v="25"/>
@@ -4221,7 +5441,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="166"/>
     <n v="0"/>
     <n v="30"/>
@@ -4236,7 +5456,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="93"/>
     <n v="0"/>
     <n v="35"/>
@@ -4251,7 +5471,7 @@
   </r>
   <r>
     <x v="39"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="129"/>
     <n v="0"/>
     <n v="35"/>
@@ -4266,7 +5486,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="707"/>
     <n v="0"/>
     <n v="38"/>
@@ -4281,7 +5501,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="582"/>
     <n v="0"/>
     <n v="45"/>
@@ -4296,7 +5516,7 @@
   </r>
   <r>
     <x v="42"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="109"/>
     <n v="0"/>
     <n v="50"/>
@@ -4311,7 +5531,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="119"/>
     <n v="0"/>
     <n v="50"/>
@@ -4326,7 +5546,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="232"/>
     <n v="0"/>
     <n v="30"/>
@@ -4341,7 +5561,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="720"/>
     <n v="1"/>
     <n v="40"/>
@@ -4356,7 +5576,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="180"/>
     <n v="0"/>
     <n v="45"/>
@@ -4371,7 +5591,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="81"/>
     <n v="1"/>
     <n v="35"/>
@@ -4386,7 +5606,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="30"/>
@@ -4401,7 +5621,7 @@
   </r>
   <r>
     <x v="39"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="90"/>
     <n v="0"/>
     <n v="35"/>
@@ -4416,7 +5636,7 @@
   </r>
   <r>
     <x v="41"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="1185"/>
     <n v="0"/>
     <n v="40"/>
@@ -4431,7 +5651,7 @@
   </r>
   <r>
     <x v="44"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="38"/>
@@ -4446,7 +5666,7 @@
   </r>
   <r>
     <x v="35"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="80"/>
     <n v="1"/>
     <n v="38"/>
@@ -4461,7 +5681,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="2017"/>
     <n v="0"/>
     <n v="25"/>
@@ -4476,7 +5696,7 @@
   </r>
   <r>
     <x v="38"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="143"/>
     <n v="0"/>
     <n v="25"/>
@@ -4491,7 +5711,7 @@
   </r>
   <r>
     <x v="39"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="624"/>
     <n v="0"/>
     <n v="35"/>
@@ -4506,7 +5726,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="207"/>
     <n v="1"/>
     <n v="40"/>
@@ -4521,7 +5741,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="2522"/>
     <n v="0"/>
     <n v="30"/>
@@ -4536,7 +5756,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="572"/>
     <n v="1"/>
     <n v="35"/>
@@ -4551,7 +5771,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="245"/>
     <n v="0"/>
     <n v="45"/>
@@ -4566,7 +5786,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="88"/>
     <n v="1"/>
     <n v="35"/>
@@ -4581,7 +5801,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="446"/>
     <n v="0"/>
     <n v="60"/>
@@ -4596,7 +5816,7 @@
   </r>
   <r>
     <x v="37"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="191"/>
     <n v="1"/>
     <n v="30"/>
@@ -4611,7 +5831,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="326"/>
     <n v="0"/>
     <n v="38"/>
@@ -4626,7 +5846,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="132"/>
     <n v="1"/>
     <n v="38"/>
@@ -4641,7 +5861,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="66"/>
     <n v="1"/>
     <n v="25"/>
@@ -4656,7 +5876,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="56"/>
     <n v="0"/>
     <n v="50"/>
@@ -4671,7 +5891,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="66"/>
     <n v="0"/>
     <n v="40"/>
@@ -4686,7 +5906,7 @@
   </r>
   <r>
     <x v="7"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="655"/>
     <n v="0"/>
     <n v="40"/>
@@ -4701,7 +5921,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="258"/>
     <n v="1"/>
     <n v="25"/>
@@ -4716,7 +5936,7 @@
   </r>
   <r>
     <x v="14"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="157"/>
     <n v="1"/>
     <n v="60"/>
@@ -4731,7 +5951,7 @@
   </r>
   <r>
     <x v="35"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="38"/>
@@ -4746,7 +5966,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="298"/>
     <n v="0"/>
     <n v="35"/>
@@ -4761,7 +5981,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1199"/>
     <n v="0"/>
     <n v="20"/>
@@ -4776,7 +5996,7 @@
   </r>
   <r>
     <x v="46"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="135"/>
     <n v="1"/>
     <n v="38"/>
@@ -4791,7 +6011,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="38"/>
@@ -4806,7 +6026,7 @@
   </r>
   <r>
     <x v="39"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="35"/>
@@ -4821,7 +6041,7 @@
   </r>
   <r>
     <x v="29"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="30"/>
@@ -4836,7 +6056,7 @@
   </r>
   <r>
     <x v="22"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="40"/>
@@ -4851,7 +6071,7 @@
   </r>
   <r>
     <x v="26"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="213"/>
     <n v="0"/>
     <n v="38"/>
@@ -4866,7 +6086,7 @@
   </r>
   <r>
     <x v="24"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="64"/>
     <n v="0"/>
     <n v="40"/>
@@ -4881,7 +6101,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="257"/>
     <n v="1"/>
     <n v="30"/>
@@ -4896,7 +6116,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="38"/>
@@ -4911,7 +6131,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="618"/>
     <n v="0"/>
     <n v="35"/>
@@ -4926,7 +6146,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="38"/>
@@ -4941,7 +6161,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="1051"/>
     <n v="1"/>
     <n v="30"/>
@@ -4956,7 +6176,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="84"/>
     <n v="1"/>
     <n v="38"/>
@@ -4971,7 +6191,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="2695"/>
     <n v="1"/>
     <n v="40"/>
@@ -4986,7 +6206,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="0"/>
     <n v="40"/>
@@ -5001,7 +6221,7 @@
   </r>
   <r>
     <x v="24"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="64"/>
     <n v="0"/>
     <n v="30"/>
@@ -5016,7 +6236,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1688"/>
     <n v="0"/>
     <n v="38"/>
@@ -5031,7 +6251,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="54"/>
     <n v="0"/>
     <n v="40"/>
@@ -5046,7 +6266,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="170"/>
     <n v="1"/>
     <n v="40"/>
@@ -5061,7 +6281,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="253"/>
     <n v="0"/>
     <n v="35"/>
@@ -5076,7 +6296,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="582"/>
     <n v="1"/>
     <n v="55"/>
@@ -5091,7 +6311,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="892"/>
     <n v="1"/>
     <n v="35"/>
@@ -5106,7 +6326,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="337"/>
     <n v="0"/>
     <n v="38"/>
@@ -5121,7 +6341,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="615"/>
     <n v="1"/>
     <n v="55"/>
@@ -5136,7 +6356,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="320"/>
     <n v="0"/>
     <n v="35"/>
@@ -5151,7 +6371,7 @@
   </r>
   <r>
     <x v="37"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="190"/>
     <n v="1"/>
     <n v="38"/>
@@ -5166,7 +6386,7 @@
   </r>
   <r>
     <x v="30"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="103"/>
     <n v="1"/>
     <n v="35"/>
@@ -5181,7 +6401,7 @@
   </r>
   <r>
     <x v="7"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="61"/>
     <n v="1"/>
     <n v="38"/>
@@ -5196,7 +6416,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1820"/>
     <n v="0"/>
     <n v="38"/>
@@ -5211,7 +6431,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="2060"/>
     <n v="1"/>
     <n v="60"/>
@@ -5226,7 +6446,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="2413"/>
     <n v="0"/>
     <n v="38"/>
@@ -5241,7 +6461,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="196"/>
     <n v="0"/>
     <n v="45"/>
@@ -5256,7 +6476,7 @@
   </r>
   <r>
     <x v="47"/>
-    <m/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -5273,7 +6493,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E93EE73D-16F2-4D2C-A308-2D0B8CC44504}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E93EE73D-16F2-4D2C-A308-2D0B8CC44504}" name="PivotTable1" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:H12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -5370,6 +6590,508 @@
     <dataField name="Sum of diabetes" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of high_blood_pressure" fld="5" baseField="0" baseItem="0"/>
     <dataField name="Sum of smoking" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Average of ejection_fraction" fld="4" subtotal="average" baseField="12" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAF2D820-0D67-45EC-A9CD-52E1ABDBF213}" name="PivotTable1" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0">
+      <items count="49">
+        <item x="39"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="33"/>
+        <item x="29"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="45"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="22"/>
+        <item x="37"/>
+        <item x="15"/>
+        <item x="44"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="23"/>
+        <item x="17"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="7"/>
+        <item x="30"/>
+        <item x="38"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="26"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="41"/>
+        <item x="0"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="27"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="31"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="12"/>
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of creatinine_phosphokinase" fld="2" subtotal="average" baseField="12" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D192C127-B8C2-4E78-A830-29C8140F993A}" name="PivotTable3" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="12"/>
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Average of creatinine_phosphokinase" fld="2" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name="Sum of creatinine_phosphokinase" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Average of serum_creatinine" fld="7" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name="Average of serum_sodium" fld="8" subtotal="average" baseField="12" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD5A3A08-058D-46FF-AEFC-5F140BA19AD0}" name="PivotTable44" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="65">
+  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of serum_sodium" fld="8" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name="Count of DEATH_EVENT" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="32" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="61" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="61" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="32" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{199E80AE-9353-4D2C-B586-4C984A6BE9E6}" name="PivotTable45" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="12"/>
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+    <i i="10">
+      <x v="10"/>
+    </i>
+  </colItems>
+  <dataFields count="11">
+    <dataField name="Count of age" fld="0" subtotal="count" baseField="12" baseItem="0"/>
+    <dataField name="Average of age" fld="0" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name="Sum of anaemia" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Average of anaemia" fld="1" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name="Sum of high_blood_pressure" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Average of high_blood_pressure" fld="5" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name="Sum of diabetes" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Average of diabetes" fld="3" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name="Sum of smoking" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Average of smoking" fld="10" subtotal="average" baseField="12" baseItem="0"/>
     <dataField name="Average of ejection_fraction" fld="4" subtotal="average" baseField="12" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -5683,8 +7405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD50DFE-0428-43D7-A7BF-FF8FA1D31BD2}">
   <dimension ref="A3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5954,6 +7676,720 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8745C152-FEAA-4EB4-9461-30081E859C4D}">
+  <dimension ref="A3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>670.19791666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>507.6764705882353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>759.32258064516134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>540.05418719211821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>461.98591549295776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>582.0454545454545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>581.83946488294316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4B44A8-7444-4C36-9BDD-BF357F5974E3}">
+  <dimension ref="A3:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>670.19791666666663</v>
+      </c>
+      <c r="C4" s="4">
+        <v>64339</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.8358333333333332</v>
+      </c>
+      <c r="E4" s="4">
+        <v>135.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>507.6764705882353</v>
+      </c>
+      <c r="C5" s="4">
+        <v>17261</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.9458823529411768</v>
+      </c>
+      <c r="E5" s="4">
+        <v>135.47058823529412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>759.32258064516134</v>
+      </c>
+      <c r="C6" s="4">
+        <v>47078</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.7754838709677416</v>
+      </c>
+      <c r="E6" s="4">
+        <v>135.32258064516128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>540.05418719211821</v>
+      </c>
+      <c r="C7" s="4">
+        <v>109631</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.1848768472906404</v>
+      </c>
+      <c r="E7" s="4">
+        <v>137.21674876847291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>461.98591549295776</v>
+      </c>
+      <c r="C8" s="4">
+        <v>32801</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.1150704225352108</v>
+      </c>
+      <c r="E8" s="4">
+        <v>137.42253521126761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>582.0454545454545</v>
+      </c>
+      <c r="C9" s="4">
+        <v>76830</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2224242424242424</v>
+      </c>
+      <c r="E9" s="4">
+        <v>137.10606060606059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>581.83946488294316</v>
+      </c>
+      <c r="C12" s="4">
+        <v>173970</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.3938795986622083</v>
+      </c>
+      <c r="E12" s="4">
+        <v>136.62541806020067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF92CBB7-5922-4F3B-A7C2-E69999AA2FBB}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>135.375</v>
+      </c>
+      <c r="C4" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>137.21674876847291</v>
+      </c>
+      <c r="C5" s="4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>136.62541806020067</v>
+      </c>
+      <c r="C7" s="4">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E233C8-4059-4850-ACAD-A3C252961AF3}">
+  <dimension ref="A2:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="A3:L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>96</v>
+      </c>
+      <c r="C4" s="4">
+        <v>65.215281250000004</v>
+      </c>
+      <c r="D4" s="4">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F4" s="4">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="H4" s="4">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J4" s="4">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="L4" s="4">
+        <v>33.46875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4">
+        <v>62.176470588235297</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="F5" s="4">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>37.529411764705884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>62</v>
+      </c>
+      <c r="C6" s="4">
+        <v>66.881725806451598</v>
+      </c>
+      <c r="D6" s="4">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="F6" s="4">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.35483870967741937</v>
+      </c>
+      <c r="H6" s="4">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="J6" s="4">
+        <v>27</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.43548387096774194</v>
+      </c>
+      <c r="L6" s="4">
+        <v>31.241935483870968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>203</v>
+      </c>
+      <c r="C7" s="4">
+        <v>58.761906403940884</v>
+      </c>
+      <c r="D7" s="4">
+        <v>83</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.40886699507389163</v>
+      </c>
+      <c r="F7" s="4">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.3251231527093596</v>
+      </c>
+      <c r="H7" s="4">
+        <v>85</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.41871921182266009</v>
+      </c>
+      <c r="J7" s="4">
+        <v>66</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.3251231527093596</v>
+      </c>
+      <c r="L7" s="4">
+        <v>40.266009852216747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>71</v>
+      </c>
+      <c r="C8" s="4">
+        <v>58.62911267605633</v>
+      </c>
+      <c r="D8" s="4">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.45070422535211269</v>
+      </c>
+      <c r="F8" s="4">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.38028169014084506</v>
+      </c>
+      <c r="H8" s="4">
+        <v>35</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.49295774647887325</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.4084507042253521E-2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>41.87323943661972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>132</v>
+      </c>
+      <c r="C9" s="4">
+        <v>58.833333333333336</v>
+      </c>
+      <c r="D9" s="4">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="F9" s="4">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="H9" s="4">
+        <v>50</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.37878787878787878</v>
+      </c>
+      <c r="J9" s="4">
+        <v>65</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.49242424242424243</v>
+      </c>
+      <c r="L9" s="4">
+        <v>39.401515151515149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>299</v>
+      </c>
+      <c r="C12" s="4">
+        <v>60.833892976588636</v>
+      </c>
+      <c r="D12" s="4">
+        <v>129</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.43143812709030099</v>
+      </c>
+      <c r="F12" s="4">
+        <v>105</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.3511705685618729</v>
+      </c>
+      <c r="H12" s="4">
+        <v>125</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.41806020066889632</v>
+      </c>
+      <c r="J12" s="4">
+        <v>96</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.32107023411371238</v>
+      </c>
+      <c r="L12" s="4">
+        <v>38.083612040133779</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M300"/>
   <sheetViews>
@@ -5962,6 +8398,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/Excel/Excel Final project data.xlsx
+++ b/Excel/Excel Final project data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan\Desktop\Bootcamp.Info\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E83009-A785-475A-B0B0-A7FEA154F1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F9B76-E13F-4198-805A-2FB521A4CBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,17 +18,18 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId5"/>
-    <sheet name="heart_failure_clinical_records_" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
+    <sheet name="heart_failure_clinical_records_" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="59" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="35">
   <si>
     <t>age</t>
   </si>
@@ -127,9 +128,6 @@
   </si>
   <si>
     <t>Average of anaemia</t>
-  </si>
-  <si>
-    <t>Count of DEATH_EVENT</t>
   </si>
   <si>
     <t>Average of diabetes</t>
@@ -701,10 +699,136 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Final project data.xlsx]Sheet5!PivotTable44</c:name>
-    <c:fmtId val="61"/>
+    <c:name>[Excel Final project data.xlsx]Sheet3!PivotTable1</c:name>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Positive Smoking History: Death Vs Survival</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16072222222222221"/>
+          <c:y val="0.11943260393354235"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -752,9 +876,8 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -766,6 +889,62 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -825,7 +1004,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -833,11 +1012,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$B$3</c:f>
+              <c:f>Sheet3!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average of serum_sodium</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -911,160 +1090,59 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Died</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Survived</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(blank)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Died</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Survived</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$4:$B$7</c:f>
+              <c:f>Sheet3!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135.375</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137.21674876847291</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D18D-4FF0-B49B-98E031B447EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Count of DEATH_EVENT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Died</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Survived</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(blank)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$C$4:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D18D-4FF0-B49B-98E031B447EB}"/>
+              <c16:uniqueId val="{00000003-D11D-473F-90F2-C50780528EB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1077,18 +1155,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="539235704"/>
-        <c:axId val="539231768"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="534001200"/>
+        <c:axId val="533998904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="539235704"/>
+        <c:axId val="534001200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1126,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539231768"/>
+        <c:crossAx val="533998904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1134,12 +1211,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539231768"/>
+        <c:axId val="533998904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1185,7 +1262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539235704"/>
+        <c:crossAx val="534001200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1197,37 +1274,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1275,7 +1321,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -1329,7 +1374,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1533,22 +1578,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1653,8 +1699,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1786,19 +1832,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1835,23 +1882,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB4FA65-3EA0-44EB-9564-3DA622C92B01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B439E0FD-4618-419E-9D3B-69FF24B10676}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6493,8 +6540,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E93EE73D-16F2-4D2C-A308-2D0B8CC44504}" name="PivotTable1" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:H12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E93EE73D-16F2-4D2C-A308-2D0B8CC44504}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:H11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -6519,7 +6566,7 @@
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item sd="0" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6528,7 +6575,7 @@
     <field x="12"/>
     <field x="9"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -6548,9 +6595,6 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
       <x v="2"/>
     </i>
     <i t="grand">
@@ -6605,8 +6649,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAF2D820-0D67-45EC-A9CD-52E1ABDBF213}" name="PivotTable1" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAF2D820-0D67-45EC-A9CD-52E1ABDBF213}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
       <items count="49">
@@ -6683,7 +6727,7 @@
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item n=" " h="1" sd="0" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6692,7 +6736,7 @@
     <field x="12"/>
     <field x="9"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -6710,12 +6754,6 @@
     </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -6740,7 +6778,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D192C127-B8C2-4E78-A830-29C8140F993A}" name="PivotTable3" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D192C127-B8C2-4E78-A830-29C8140F993A}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -6840,146 +6878,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD5A3A08-058D-46FF-AEFC-5F140BA19AD0}" name="PivotTable44" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="65">
-  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of serum_sodium" fld="8" subtotal="average" baseField="12" baseItem="0"/>
-    <dataField name="Count of DEATH_EVENT" fld="12" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="32" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="61" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="61" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="32" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{199E80AE-9353-4D2C-B586-4C984A6BE9E6}" name="PivotTable45" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{199E80AE-9353-4D2C-B586-4C984A6BE9E6}" name="PivotTable45" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -7094,6 +6993,103 @@
     <dataField name="Average of smoking" fld="10" subtotal="average" baseField="12" baseItem="0"/>
     <dataField name="Average of ejection_fraction" fld="4" subtotal="average" baseField="12" baseItem="0"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{041D4B1C-80B4-40A7-9B6B-6D71C9798336}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="12"/>
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of smoking" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7403,10 +7399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD50DFE-0428-43D7-A7BF-FF8FA1D31BD2}">
-  <dimension ref="A3:H12"/>
+  <dimension ref="A3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7633,40 +7629,28 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B11" s="4">
         <v>299</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C11" s="4">
         <v>60.833892976588636</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D11" s="4">
         <v>129</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E11" s="4">
         <v>125</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F11" s="4">
         <v>105</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G11" s="4">
         <v>96</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H11" s="4">
         <v>38.083612040133779</v>
       </c>
     </row>
@@ -7677,10 +7661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8745C152-FEAA-4EB4-9461-30081E859C4D}">
-  <dimension ref="A3:B12"/>
+  <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7747,21 +7731,9 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B10" s="4">
         <v>581.83946488294316</v>
       </c>
     </row>
@@ -7775,7 +7747,7 @@
   <dimension ref="A3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7948,78 +7920,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF92CBB7-5922-4F3B-A7C2-E69999AA2FBB}">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A3:B7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <v>135.375</v>
-      </c>
-      <c r="C4" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4">
-        <v>137.21674876847291</v>
-      </c>
-      <c r="C5" s="4">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4">
-        <v>136.62541806020067</v>
-      </c>
-      <c r="C7" s="4">
-        <v>299</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8027,7 +7947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E233C8-4059-4850-ACAD-A3C252961AF3}">
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="A3:L12"/>
     </sheetView>
   </sheetViews>
@@ -8074,13 +7994,13 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
@@ -8390,6 +8310,90 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEBD8C6-E15E-4DF6-8034-226C62745EE8}">
+  <dimension ref="A3:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M300"/>
   <sheetViews>
